--- a/ParameterNameList/parameterList_task_OMT.xlsx
+++ b/ParameterNameList/parameterList_task_OMT.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Masud_OxfordCognition\Project03_Plasma_AD\OxCog_analysis_Plasma\ParameterNameList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Masud_OxfordCognition\Project13_ECT\OxCog_analysis_ECT\ParameterNameList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF23309-DC1E-4494-905A-BCF52AC02F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFB0AB4-95EE-4086-A6F6-8AF43CB7BC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2256" windowWidth="25068" windowHeight="11556" activeTab="1" xr2:uid="{837278C6-3617-4250-9B66-D7B6D4290612}"/>
+    <workbookView xWindow="7380" yWindow="4104" windowWidth="17172" windowHeight="12120" xr2:uid="{837278C6-3617-4250-9B66-D7B6D4290612}"/>
   </bookViews>
   <sheets>
-    <sheet name="key" sheetId="3" r:id="rId1"/>
+    <sheet name="all (3)" sheetId="5" r:id="rId1"/>
     <sheet name="all" sheetId="2" r:id="rId2"/>
-    <sheet name="all (2)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>plist</t>
   </si>
@@ -92,139 +91,124 @@
     <t>num</t>
   </si>
   <si>
-    <t>cell</t>
+    <t>ProportionCorrect_1item_4secs</t>
+  </si>
+  <si>
+    <t>ProportionCorrect_3item_4secs</t>
+  </si>
+  <si>
+    <t>AbsoluteError_1item_4secs</t>
+  </si>
+  <si>
+    <t>AbsoluteError_3item_4secs</t>
+  </si>
+  <si>
+    <t>Target_Simple_1item_4secs</t>
+  </si>
+  <si>
+    <t>Target_Simple_3item_4secs</t>
+  </si>
+  <si>
+    <t>Misbinding_Simple_3item_4secs</t>
+  </si>
+  <si>
+    <t>Guessing_Simple_3item_4secs</t>
+  </si>
+  <si>
+    <t>IdentificationTime_1item_4secs</t>
+  </si>
+  <si>
+    <t>IdentificationTime_3item_4secs</t>
+  </si>
+  <si>
+    <t>LocalisationTime_1item_4secs</t>
+  </si>
+  <si>
+    <t>LocalisationTime_3item_4secs</t>
+  </si>
+  <si>
+    <t>Guessing_Simple_1item_4secs</t>
+  </si>
+  <si>
+    <t>Guessing (1item)</t>
+  </si>
+  <si>
+    <t>Precision_Simu_1item_4secs</t>
+  </si>
+  <si>
+    <t>Precision (1item)</t>
+  </si>
+  <si>
+    <t>Precision_Simu_3item_4secs</t>
+  </si>
+  <si>
+    <t>Imprecision_Simple_1item_4secs</t>
+  </si>
+  <si>
+    <t>Imprecision (1item)</t>
+  </si>
+  <si>
+    <t>Imprecision_Simple_3item_4secs</t>
+  </si>
+  <si>
+    <t>OMT_ProportionCorrect</t>
+  </si>
+  <si>
+    <t>OMT_AbsoluteError</t>
+  </si>
+  <si>
+    <t>OMT_TargetDetection</t>
+  </si>
+  <si>
+    <t>OMT_Misbinding</t>
+  </si>
+  <si>
+    <t>OMT_Guessing</t>
+  </si>
+  <si>
+    <t>OMT_Precision</t>
+  </si>
+  <si>
+    <t>OMT_Imprecision</t>
+  </si>
+  <si>
+    <t>OMT_IdentificationTime</t>
+  </si>
+  <si>
+    <t>OMT_LocalisationTime</t>
+  </si>
+  <si>
+    <t>Target Detection (1 or 3)</t>
+  </si>
+  <si>
+    <t>Proportion Correct (1 or 3)</t>
+  </si>
+  <si>
+    <t>Guessing (1 or 3)</t>
+  </si>
+  <si>
+    <t>Misbinding (3)</t>
+  </si>
+  <si>
+    <t>Precision  (1 or 3)</t>
+  </si>
+  <si>
+    <t>Imprecision  (1 or 3)</t>
+  </si>
+  <si>
+    <t>Identification Time (1 or 3)</t>
+  </si>
+  <si>
+    <t>Localisation Time (1 or 3)</t>
+  </si>
+  <si>
+    <t>Absolute Error (1 or 3)</t>
+  </si>
+  <si>
+    <t>testTime_omt</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>ProportionCorrect_1item_4secs</t>
-  </si>
-  <si>
-    <t>ProportionCorrect_3item_4secs</t>
-  </si>
-  <si>
-    <t>AbsoluteError_1item_4secs</t>
-  </si>
-  <si>
-    <t>AbsoluteError_3item_4secs</t>
-  </si>
-  <si>
-    <t>Target_Simple_1item_4secs</t>
-  </si>
-  <si>
-    <t>Target_Simple_3item_4secs</t>
-  </si>
-  <si>
-    <t>Misbinding_Simple_3item_4secs</t>
-  </si>
-  <si>
-    <t>Guessing_Simple_3item_4secs</t>
-  </si>
-  <si>
-    <t>IdentificationTime_1item_4secs</t>
-  </si>
-  <si>
-    <t>IdentificationTime_3item_4secs</t>
-  </si>
-  <si>
-    <t>LocalisationTime_1item_4secs</t>
-  </si>
-  <si>
-    <t>LocalisationTime_3item_4secs</t>
-  </si>
-  <si>
-    <t>testTime_OMT</t>
-  </si>
-  <si>
-    <t>userAgent_OMT</t>
-  </si>
-  <si>
-    <t>test time</t>
-  </si>
-  <si>
-    <t>Guessing_Simple_1item_4secs</t>
-  </si>
-  <si>
-    <t>Guessing (1item)</t>
-  </si>
-  <si>
-    <t>Precision_Simu_1item_4secs</t>
-  </si>
-  <si>
-    <t>Precision (1item)</t>
-  </si>
-  <si>
-    <t>Precision_Simu_3item_4secs</t>
-  </si>
-  <si>
-    <t>Imprecision_Simple_1item_4secs</t>
-  </si>
-  <si>
-    <t>Imprecision (1item)</t>
-  </si>
-  <si>
-    <t>Imprecision_Simple_3item_4secs</t>
-  </si>
-  <si>
-    <t>screensize</t>
-  </si>
-  <si>
-    <t>screensize_OMT</t>
-  </si>
-  <si>
-    <t>OMT_ProportionCorrect</t>
-  </si>
-  <si>
-    <t>OMT_AbsoluteError</t>
-  </si>
-  <si>
-    <t>OMT_TargetDetection</t>
-  </si>
-  <si>
-    <t>OMT_Misbinding</t>
-  </si>
-  <si>
-    <t>OMT_Guessing</t>
-  </si>
-  <si>
-    <t>OMT_Precision</t>
-  </si>
-  <si>
-    <t>OMT_Imprecision</t>
-  </si>
-  <si>
-    <t>OMT_IdentificationTime</t>
-  </si>
-  <si>
-    <t>OMT_LocalisationTime</t>
-  </si>
-  <si>
-    <t>Target Detection (1 or 3)</t>
-  </si>
-  <si>
-    <t>Proportion Correct (1 or 3)</t>
-  </si>
-  <si>
-    <t>Guessing (1 or 3)</t>
-  </si>
-  <si>
-    <t>Misbinding (3)</t>
-  </si>
-  <si>
-    <t>Precision  (1 or 3)</t>
-  </si>
-  <si>
-    <t>Imprecision  (1 or 3)</t>
-  </si>
-  <si>
-    <t>Identification Time (1 or 3)</t>
-  </si>
-  <si>
-    <t>Localisation Time (1 or 3)</t>
-  </si>
-  <si>
-    <t>Absolute Error (1 or 3)</t>
   </si>
 </sst>
 </file>
@@ -575,131 +559,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5942E8-23DC-414E-85AB-5F01F23F0A00}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF0ABEC-B1E6-4663-8846-688148403420}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
       <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -707,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE4A4D9-6184-4741-8DFC-CC9163CECF99}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -730,10 +684,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -741,10 +695,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -752,10 +706,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -763,10 +717,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -774,10 +728,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -785,10 +739,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -796,10 +750,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -807,10 +761,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -818,10 +772,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -829,7 +783,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -840,7 +794,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -851,7 +805,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -862,7 +816,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -873,7 +827,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -884,7 +838,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -895,7 +849,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -906,327 +860,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE5E4B6-AE40-45C2-BD83-25B925CD3826}">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -1237,7 +874,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -1245,10 +882,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1256,10 +893,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1267,10 +904,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1278,10 +915,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1289,10 +926,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -1300,10 +937,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -1311,10 +948,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -1325,42 +962,9 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
         <v>17</v>
       </c>
     </row>

--- a/ParameterNameList/parameterList_task_OMT.xlsx
+++ b/ParameterNameList/parameterList_task_OMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Masud_OxfordCognition\Project13_ECT\OxCog_analysis_ECT\ParameterNameList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sijiazhao/Documents/GitHub/Masud_OxfordCognition/ECT/OxCog_analysis_ECT/ParameterNameList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFB0AB4-95EE-4086-A6F6-8AF43CB7BC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151235D6-5507-FB4F-9BB3-8283E96C8041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="4104" windowWidth="17172" windowHeight="12120" xr2:uid="{837278C6-3617-4250-9B66-D7B6D4290612}"/>
+    <workbookView xWindow="7380" yWindow="4100" windowWidth="17180" windowHeight="12120" xr2:uid="{837278C6-3617-4250-9B66-D7B6D4290612}"/>
   </bookViews>
   <sheets>
     <sheet name="all (3)" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>plist</t>
   </si>
@@ -203,12 +203,6 @@
   </si>
   <si>
     <t>Absolute Error (1 or 3)</t>
-  </si>
-  <si>
-    <t>testTime_omt</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
 </sst>
 </file>
@@ -560,18 +554,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF0ABEC-B1E6-4663-8846-688148403420}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,75 +573,67 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -665,13 +651,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -693,7 +679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -704,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -715,7 +701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -726,7 +712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -737,7 +723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -748,7 +734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -759,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -770,7 +756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -781,7 +767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -792,7 +778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -803,7 +789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -814,7 +800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -825,7 +811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -836,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -847,7 +833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -858,7 +844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -869,7 +855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -880,7 +866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -891,7 +877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -902,7 +888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -913,7 +899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -924,7 +910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -935,7 +921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -946,7 +932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -957,7 +943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
